--- a/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D426B-8D09-4922-BCFE-2215BC054815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4CFFD-D007-4D35-B848-A8A3CD9D3572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -79,24 +79,6 @@
   </si>
   <si>
     <t>3XL</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>EC002</t>
-  </si>
-  <si>
-    <t>TQ</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>208580</t>
   </si>
 </sst>
 </file>
@@ -537,7 +519,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D25" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,43 +584,19 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44158</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="16">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="16">
-        <v>20</v>
-      </c>
-      <c r="K2" s="16">
-        <v>3</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="16">
-        <v>50</v>
-      </c>
+      <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>

--- a/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4CFFD-D007-4D35-B848-A8A3CD9D3572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EDAF12-08AD-4853-9A07-F3410AA4EC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nguyễn Hồng Phong</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{24EA08D9-D50A-4ED5-A7B2-4E19CE646C05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dữ liệu đến dòng nào thì điền STT đến dòng đó (KHÔNG ĐƯỢC ĐIỀN THỪA VÀO NHỮNG DÒNG KHÔNG CÓ DỮ LIỆU)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D3EE42D4-DE34-47AA-9AF8-A2EA984B37F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Số PO Phải trùng với Số PO trên chào giá đang upload</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{406D8897-910C-4CFA-9607-CDC15CD419E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Số Line của PO đang được chọn để upload</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E41A5F8C-C7F8-4314-93EF-5A05B50338F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ngày giao hàng để chính xác định dạng "dd/MM/yyyy"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BC5C3F1E-5AD0-4545-94BB-D1DE93BCF52A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phương thức đóng gói</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F14AF783-E0FF-4378-95F6-ECC42836399B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tên màu sản phẩm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{194BCFBA-9DD7-4D22-8B07-1EF2B6BE6448}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mã màu sản phẩm</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -91,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +238,13 @@
       <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -251,6 +366,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,5 +773,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EDAF12-08AD-4853-9A07-F3410AA4EC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83121F2-A732-4E9C-A82A-A1A9FDE644FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,11 +193,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -301,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,9 +314,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +346,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -366,10 +371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,20 +639,20 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="17.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="17.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="19" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -665,7 +666,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -680,95 +681,95 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_Upload_PO_Line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83121F2-A732-4E9C-A82A-A1A9FDE644FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9D0B51-6263-4B0E-86F7-A48EE327D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F14AF783-E0FF-4378-95F6-ECC42836399B}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F14AF783-E0FF-4378-95F6-ECC42836399B}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{194BCFBA-9DD7-4D22-8B07-1EF2B6BE6448}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{194BCFBA-9DD7-4D22-8B07-1EF2B6BE6448}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>3XL</t>
+  </si>
+  <si>
+    <t>Style</t>
   </si>
 </sst>
 </file>
@@ -636,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,14 +652,16 @@
     <col min="3" max="3" width="10.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="19" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,100 +681,107 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="18"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="12"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="18"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="12"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="18"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="18"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
